--- a/Programas.xlsx
+++ b/Programas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anl4.siac\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B357F515-7FAF-4C0F-9C9C-86236A3B6BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE495C6-77B6-4424-A056-F4D6C64BFA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DAF818EA-DD19-4C16-9EBB-6D3D00575E58}"/>
+    <workbookView xWindow="41640" yWindow="240" windowWidth="12135" windowHeight="7275" xr2:uid="{DAF818EA-DD19-4C16-9EBB-6D3D00575E58}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>snies_input</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>054 de 2008</t>
+  </si>
+  <si>
+    <t>instancia</t>
+  </si>
+  <si>
+    <t>Resolución rectoral</t>
   </si>
 </sst>
 </file>
@@ -412,15 +418,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC646926-E1FD-4DD4-85E9-21D3091B0D3C}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="18.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,8 +448,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>54862</v>
       </c>
@@ -452,6 +467,9 @@
       </c>
       <c r="E2" t="s">
         <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Programas.xlsx
+++ b/Programas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anl4.siac\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE495C6-77B6-4424-A056-F4D6C64BFA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A8F4EA-54E7-43DD-9857-DB2A1174AD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41640" yWindow="240" windowWidth="12135" windowHeight="7275" xr2:uid="{DAF818EA-DD19-4C16-9EBB-6D3D00575E58}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>snies_input</t>
   </si>
@@ -63,23 +63,53 @@
     <t>054 de 2008</t>
   </si>
   <si>
-    <t>instancia</t>
-  </si>
-  <si>
     <t>Resolución rectoral</t>
+  </si>
+  <si>
+    <t>instancia_input</t>
+  </si>
+  <si>
+    <t>014374 del 11 de diciembre de 2019</t>
+  </si>
+  <si>
+    <t>Creditos</t>
+  </si>
+  <si>
+    <t>Medellín</t>
+  </si>
+  <si>
+    <t>reg1</t>
+  </si>
+  <si>
+    <t>Resolución 4293 del 2016</t>
+  </si>
+  <si>
+    <t>periodo_idx</t>
+  </si>
+  <si>
+    <t>acred1</t>
+  </si>
+  <si>
+    <t>lugar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,12 +128,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC646926-E1FD-4DD4-85E9-21D3091B0D3C}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,7 +480,7 @@
     <col min="5" max="5" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,10 +497,25 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>54862</v>
       </c>
@@ -469,7 +532,22 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>160</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Programas.xlsx
+++ b/Programas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anl4.siac\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A8F4EA-54E7-43DD-9857-DB2A1174AD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693756C1-7570-47E1-BA39-855EDE008AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41640" yWindow="240" windowWidth="12135" windowHeight="7275" xr2:uid="{DAF818EA-DD19-4C16-9EBB-6D3D00575E58}"/>
+    <workbookView xWindow="43515" yWindow="240" windowWidth="10260" windowHeight="7275" xr2:uid="{DAF818EA-DD19-4C16-9EBB-6D3D00575E58}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>014374 del 11 de diciembre de 2019</t>
   </si>
   <si>
-    <t>Creditos</t>
-  </si>
-  <si>
     <t>Medellín</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>lugar</t>
+  </si>
+  <si>
+    <t>creditos</t>
   </si>
 </sst>
 </file>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC646926-E1FD-4DD4-85E9-21D3091B0D3C}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -500,19 +500,19 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -544,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Programas.xlsx
+++ b/Programas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anl4.siac\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693756C1-7570-47E1-BA39-855EDE008AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA90FF1-DAE4-40D2-8303-B8C9336146E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43515" yWindow="240" windowWidth="10260" windowHeight="7275" xr2:uid="{DAF818EA-DD19-4C16-9EBB-6D3D00575E58}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{DAF818EA-DD19-4C16-9EBB-6D3D00575E58}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>snies_input</t>
   </si>
@@ -91,6 +91,21 @@
   </si>
   <si>
     <t>creditos</t>
+  </si>
+  <si>
+    <t>Ingeniería en Logística</t>
+  </si>
+  <si>
+    <t>Ingeniero(a) en logística</t>
+  </si>
+  <si>
+    <t>Acuerdo 002 del 14 de febrero de 2019</t>
+  </si>
+  <si>
+    <t>Consejo directivo</t>
+  </si>
+  <si>
+    <t>07 de noviembre del 2019</t>
   </si>
 </sst>
 </file>
@@ -466,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC646926-E1FD-4DD4-85E9-21D3091B0D3C}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,6 +493,7 @@
     <col min="3" max="3" width="14.36328125" customWidth="1"/>
     <col min="4" max="4" width="14.90625" customWidth="1"/>
     <col min="5" max="5" width="19.81640625" customWidth="1"/>
+    <col min="6" max="6" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -550,6 +566,38 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>108434</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>156</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Programas.xlsx
+++ b/Programas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anl4.siac\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA90FF1-DAE4-40D2-8303-B8C9336146E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0006C1D3-65FF-4377-B44A-FF969BCA09D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{DAF818EA-DD19-4C16-9EBB-6D3D00575E58}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>snies_input</t>
   </si>
@@ -69,9 +69,6 @@
     <t>instancia_input</t>
   </si>
   <si>
-    <t>014374 del 11 de diciembre de 2019</t>
-  </si>
-  <si>
     <t>Medellín</t>
   </si>
   <si>
@@ -105,7 +102,13 @@
     <t>Consejo directivo</t>
   </si>
   <si>
-    <t>07 de noviembre del 2019</t>
+    <t>reg2</t>
+  </si>
+  <si>
+    <t>Resolución 011706 07 de noviembre del 2019</t>
+  </si>
+  <si>
+    <t>Resolución 014374 del 11 de diciembre de 2019</t>
   </si>
 </sst>
 </file>
@@ -162,9 +165,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -481,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC646926-E1FD-4DD4-85E9-21D3091B0D3C}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,9 +500,10 @@
     <col min="4" max="4" width="14.90625" customWidth="1"/>
     <col min="5" max="5" width="19.81640625" customWidth="1"/>
     <col min="6" max="6" width="30.54296875" customWidth="1"/>
+    <col min="7" max="8" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,22 +523,25 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>54862</v>
       </c>
@@ -551,51 +561,52 @@
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2">
+        <v>160</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="H2">
-        <v>160</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>108434</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
       </c>
       <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>156</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
-        <v>11</v>
+      <c r="L3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Programas.xlsx
+++ b/Programas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anl4.siac\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0006C1D3-65FF-4377-B44A-FF969BCA09D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE82345A-78BA-4CFE-8F16-95D6AB7E6A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{DAF818EA-DD19-4C16-9EBB-6D3D00575E58}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>snies_input</t>
   </si>
@@ -87,9 +87,6 @@
     <t>lugar</t>
   </si>
   <si>
-    <t>creditos</t>
-  </si>
-  <si>
     <t>Ingeniería en Logística</t>
   </si>
   <si>
@@ -109,6 +106,12 @@
   </si>
   <si>
     <t>Resolución 014374 del 11 de diciembre de 2019</t>
+  </si>
+  <si>
+    <t>cred</t>
+  </si>
+  <si>
+    <t>estudiantes_input</t>
   </si>
 </sst>
 </file>
@@ -487,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC646926-E1FD-4DD4-85E9-21D3091B0D3C}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -500,10 +503,11 @@
     <col min="4" max="4" width="14.90625" customWidth="1"/>
     <col min="5" max="5" width="19.81640625" customWidth="1"/>
     <col min="6" max="6" width="30.54296875" customWidth="1"/>
-    <col min="7" max="8" width="55" customWidth="1"/>
+    <col min="7" max="7" width="55" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,10 +530,10 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -540,8 +544,11 @@
       <c r="L1" t="s">
         <v>15</v>
       </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>54862</v>
       </c>
@@ -561,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2">
@@ -577,27 +584,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>108434</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3">
         <v>156</v>
@@ -607,6 +614,9 @@
       </c>
       <c r="L3" t="s">
         <v>10</v>
+      </c>
+      <c r="M3">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Programas.xlsx
+++ b/Programas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anl4.siac\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE82345A-78BA-4CFE-8F16-95D6AB7E6A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F51DA2-51BE-46CD-AD62-21D41FFECB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{DAF818EA-DD19-4C16-9EBB-6D3D00575E58}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>snies_input</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>estudiantes_input</t>
+  </si>
+  <si>
+    <t>facultad</t>
+  </si>
+  <si>
+    <t>departamento</t>
+  </si>
+  <si>
+    <t>Facultad de Producción y diseño</t>
+  </si>
+  <si>
+    <t>Departamento de producción</t>
   </si>
 </sst>
 </file>
@@ -490,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC646926-E1FD-4DD4-85E9-21D3091B0D3C}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -507,7 +519,7 @@
     <col min="8" max="8" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,8 +559,14 @@
       <c r="M1" t="s">
         <v>24</v>
       </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>54862</v>
       </c>
@@ -584,7 +602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>108434</v>
       </c>
@@ -617,6 +635,12 @@
       </c>
       <c r="M3">
         <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Programas.xlsx
+++ b/Programas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anl4.siac\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F51DA2-51BE-46CD-AD62-21D41FFECB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91399323-1A5F-43D8-B29C-D2322849BAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{DAF818EA-DD19-4C16-9EBB-6D3D00575E58}"/>
   </bookViews>
@@ -505,7 +505,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Programas.xlsx
+++ b/Programas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anl4.siac\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91399323-1A5F-43D8-B29C-D2322849BAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89C1A86-422C-411E-B341-EEF3D5A668B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{DAF818EA-DD19-4C16-9EBB-6D3D00575E58}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DAF818EA-DD19-4C16-9EBB-6D3D00575E58}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>snies_input</t>
   </si>
@@ -124,6 +124,30 @@
   </si>
   <si>
     <t>Departamento de producción</t>
+  </si>
+  <si>
+    <t>Tecnología en Sistemas Mecatrónicos</t>
+  </si>
+  <si>
+    <t>Tecnológo en Sistemas Mecatrónicos</t>
+  </si>
+  <si>
+    <t>Acuerdo</t>
+  </si>
+  <si>
+    <t>003 del 18 de febero de 1999</t>
+  </si>
+  <si>
+    <t>Resolución 2595 del 19 de noviembre de 2002</t>
+  </si>
+  <si>
+    <t>Facultad de Ingeniería</t>
+  </si>
+  <si>
+    <t>Departamento de Sistemas Digitales</t>
+  </si>
+  <si>
+    <t>Resolución Marzo  del 2000</t>
   </si>
 </sst>
 </file>
@@ -180,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -188,6 +212,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,18 +527,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC646926-E1FD-4DD4-85E9-21D3091B0D3C}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18.6328125" customWidth="1"/>
     <col min="3" max="3" width="14.36328125" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" customWidth="1"/>
+    <col min="5" max="5" width="26.08984375" customWidth="1"/>
     <col min="6" max="6" width="30.54296875" customWidth="1"/>
     <col min="7" max="7" width="55" customWidth="1"/>
     <col min="8" max="8" width="8.7265625" customWidth="1"/>
@@ -643,6 +668,44 @@
         <v>28</v>
       </c>
     </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>102691</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4">
+        <v>148</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Programas.xlsx
+++ b/Programas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anl4.siac\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89C1A86-422C-411E-B341-EEF3D5A668B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34C56F2-8484-453F-92C1-1B73540DFCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DAF818EA-DD19-4C16-9EBB-6D3D00575E58}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Programas.xlsx
+++ b/Programas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anl4.siac\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34C56F2-8484-453F-92C1-1B73540DFCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D2639E-CD6D-4E0C-80B3-B8F77128B1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DAF818EA-DD19-4C16-9EBB-6D3D00575E58}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Programas.xlsx
+++ b/Programas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anl4.siac\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D2639E-CD6D-4E0C-80B3-B8F77128B1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDF006B-1C4A-448C-B601-EAFEBCE957D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DAF818EA-DD19-4C16-9EBB-6D3D00575E58}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>snies_input</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Resolución Marzo  del 2000</t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
@@ -530,7 +533,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -678,6 +681,9 @@
       <c r="C4" t="s">
         <v>30</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="E4" t="s">
         <v>32</v>
       </c>
@@ -687,6 +693,9 @@
       <c r="G4" t="s">
         <v>36</v>
       </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
       <c r="I4">
         <v>148</v>
       </c>
@@ -698,6 +707,9 @@
       </c>
       <c r="L4" t="s">
         <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>37</v>
       </c>
       <c r="N4" t="s">
         <v>34</v>
